--- a/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik oktober 2024.xlsx
+++ b/out/Frisksnit/Nordsjælland Hospital (HIH), Centralkøkken - Økologi statistik oktober 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -553,7 +553,7 @@
     <t>5% filler,10% containsTotalMass,10% containsSingleMass,52% isInteger,10% containsProductNr,10% containsAmount,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -562,25 +562,19 @@
     <t>1% filler,13% containsTotalMass,13% containsSingleMass,13% containsProduct,6% containsProductNr,13% containsAmount,13% SingleMassHeader,13% TotalMassHeader,13% QuantityHeader,</t>
   </si>
   <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
   </si>
   <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -623,7 +617,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,7 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -693,11 +687,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7A999A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -739,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,10 +802,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -824,28 +809,38 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" applyFill="1" borderId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="10" applyNumberFormat="1" fontId="2" applyFont="1" fillId="12" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="16" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="18" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2849,7 +2844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94356F22-F39D-4A75-9679-BD980311DFAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B353FD7E-5BAC-45C6-8E67-9B9475A87163}">
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -3168,7 +3163,7 @@
       <c r="G14" s="35">
         <v>2500.5</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="44" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3195,9 +3190,6 @@
       <c r="G15" s="35">
         <v>1250.25</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
@@ -3686,7 +3678,7 @@
       <c r="B36" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="32">
@@ -3803,7 +3795,7 @@
       <c r="A41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="41">
         <v>3100</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -3811,11 +3803,11 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="44">
+      <c r="F41" s="42">
         <f>SUM(F7:F40)</f>
         <v>1265</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="43">
         <f>SUM(G7:G40)</f>
         <v>58693.979999999996</v>
       </c>
@@ -4115,7 +4107,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="44" t="s">
         <v>123</v>
       </c>
       <c r="B55" s="29" t="s">
@@ -4502,7 +4494,7 @@
       <c r="A71" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="41">
         <v>3100</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -4510,11 +4502,11 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="44">
+      <c r="F71" s="42">
         <f>SUM(F44:F70)</f>
         <v>2024</v>
       </c>
-      <c r="G71" s="45">
+      <c r="G71" s="43">
         <f>SUM(G44:G70)</f>
         <v>66589.97</v>
       </c>
@@ -4532,11 +4524,11 @@
       <c r="A73" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F73" s="47">
+      <c r="F73" s="45">
         <f>+F41+F71</f>
         <v>3289</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G73" s="46">
         <f>+G41+G71</f>
         <v>125283.95</v>
       </c>
@@ -4545,11 +4537,11 @@
       <c r="A74" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F74" s="49">
+      <c r="F74" s="47">
         <f>+F71/F73</f>
         <v>0.6153846153846154</v>
       </c>
-      <c r="G74" s="49">
+      <c r="G74" s="47">
         <f>+G71/G73</f>
         <v>0.5315123764855754</v>
       </c>
@@ -4561,7 +4553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5346869-A440-4BD7-B3D0-F49D8A3ABD69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B828687-C083-40D3-BC41-66D346F5828A}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
@@ -4631,20 +4623,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="D6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="55" t="s">
+      <c r="F6" s="55" t="s">
         <v>178</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>179</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -4654,10 +4646,10 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
@@ -4666,7 +4658,7 @@
       <c r="E7" s="56">
         <v>2</v>
       </c>
-      <c r="F7" s="57">
+      <c r="F7" s="58">
         <f>+D7*E7</f>
         <v>2</v>
       </c>
@@ -4678,10 +4670,10 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
@@ -4690,7 +4682,7 @@
       <c r="E8" s="56">
         <v>1</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="58">
         <f ref="F8:F40" t="shared" si="0">+D8*E8</f>
         <v>3</v>
       </c>
@@ -4702,10 +4694,10 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
@@ -4714,7 +4706,7 @@
       <c r="E9" s="56">
         <v>3</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4726,10 +4718,10 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
@@ -4738,7 +4730,7 @@
       <c r="E10" s="56">
         <v>12</v>
       </c>
-      <c r="F10" s="57">
+      <c r="F10" s="58">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4750,10 +4742,10 @@
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1">
@@ -4762,7 +4754,7 @@
       <c r="E11" s="56">
         <v>2</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4774,10 +4766,10 @@
       <c r="A12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1">
@@ -4786,7 +4778,7 @@
       <c r="E12" s="56">
         <v>10</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4798,10 +4790,10 @@
       <c r="A13" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1">
@@ -4810,7 +4802,7 @@
       <c r="E13" s="56">
         <v>10</v>
       </c>
-      <c r="F13" s="57">
+      <c r="F13" s="58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -4822,10 +4814,10 @@
       <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="1">
@@ -4834,7 +4826,7 @@
       <c r="E14" s="56">
         <v>10</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -4846,10 +4838,10 @@
       <c r="A15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1">
@@ -4858,7 +4850,7 @@
       <c r="E15" s="56">
         <v>25</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="58">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4870,10 +4862,10 @@
       <c r="A16" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1">
@@ -4882,7 +4874,7 @@
       <c r="E16" s="56">
         <v>3</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="58">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4894,10 +4886,10 @@
       <c r="A17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="1">
@@ -4906,7 +4898,7 @@
       <c r="E17" s="56">
         <v>4</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="58">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4918,10 +4910,10 @@
       <c r="A18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="1">
@@ -4930,7 +4922,7 @@
       <c r="E18" s="56">
         <v>24</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="58">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -4942,10 +4934,10 @@
       <c r="A19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="1">
@@ -4954,7 +4946,7 @@
       <c r="E19" s="56">
         <v>4</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="58">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4966,10 +4958,10 @@
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="1">
@@ -4978,7 +4970,7 @@
       <c r="E20" s="56">
         <v>11</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="58">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -4990,10 +4982,10 @@
       <c r="A21" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="1">
@@ -5002,7 +4994,7 @@
       <c r="E21" s="56">
         <v>3</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5014,10 +5006,10 @@
       <c r="A22" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="1">
@@ -5026,7 +5018,7 @@
       <c r="E22" s="56">
         <v>4</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5038,10 +5030,10 @@
       <c r="A23" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="53" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="1">
@@ -5050,7 +5042,7 @@
       <c r="E23" s="56">
         <v>6</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -5062,10 +5054,10 @@
       <c r="A24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="1">
@@ -5074,7 +5066,7 @@
       <c r="E24" s="56">
         <v>8</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5086,10 +5078,10 @@
       <c r="A25" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="1">
@@ -5098,7 +5090,7 @@
       <c r="E25" s="56">
         <v>4</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5110,10 +5102,10 @@
       <c r="A26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="53" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="1">
@@ -5122,7 +5114,7 @@
       <c r="E26" s="56">
         <v>66</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="58">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
@@ -5134,10 +5126,10 @@
       <c r="A27" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="53" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="1">
@@ -5146,7 +5138,7 @@
       <c r="E27" s="56">
         <v>2</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5158,10 +5150,10 @@
       <c r="A28" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="53" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="1">
@@ -5170,7 +5162,7 @@
       <c r="E28" s="56">
         <v>2</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5182,10 +5174,10 @@
       <c r="A29" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="53" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="1">
@@ -5194,7 +5186,7 @@
       <c r="E29" s="56">
         <v>1</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5206,10 +5198,10 @@
       <c r="A30" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="1">
@@ -5218,7 +5210,7 @@
       <c r="E30" s="56">
         <v>1</v>
       </c>
-      <c r="F30" s="57">
+      <c r="F30" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5230,10 +5222,10 @@
       <c r="A31" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="53" t="s">
         <v>71</v>
       </c>
       <c r="D31" s="1">
@@ -5242,7 +5234,7 @@
       <c r="E31" s="56">
         <v>1</v>
       </c>
-      <c r="F31" s="57">
+      <c r="F31" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5254,10 +5246,10 @@
       <c r="A32" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="53" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="1">
@@ -5266,7 +5258,7 @@
       <c r="E32" s="56">
         <v>1</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5278,10 +5270,10 @@
       <c r="A33" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="1">
@@ -5290,7 +5282,7 @@
       <c r="E33" s="56">
         <v>6</v>
       </c>
-      <c r="F33" s="57">
+      <c r="F33" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5302,10 +5294,10 @@
       <c r="A34" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="53" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="1">
@@ -5314,7 +5306,7 @@
       <c r="E34" s="56">
         <v>14</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="58">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -5326,10 +5318,10 @@
       <c r="A35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="53" t="s">
         <v>81</v>
       </c>
       <c r="D35" s="1">
@@ -5338,7 +5330,7 @@
       <c r="E35" s="56">
         <v>1</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5350,19 +5342,19 @@
       <c r="A36" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="53" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="56">
         <v>33</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="58">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -5374,19 +5366,19 @@
       <c r="A37" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="53" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="56">
         <v>2</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5398,19 +5390,19 @@
       <c r="A38" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="53" t="s">
         <v>90</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="56">
         <v>468</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="58">
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
@@ -5422,19 +5414,19 @@
       <c r="A39" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="56">
         <v>54</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="58">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
@@ -5446,19 +5438,19 @@
       <c r="A40" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="53" t="s">
         <v>94</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="56">
         <v>29</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="58">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
@@ -5470,15 +5462,15 @@
       <c r="A41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="51">
         <v>3100</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="54" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15">
+      <c r="E41" s="57"/>
+      <c r="F41" s="59">
         <f>SUM(F7:F40)</f>
         <v>1265</v>
       </c>
@@ -5498,20 +5490,20 @@
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E43" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="55" t="s">
         <v>178</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>179</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>10</v>
@@ -5521,10 +5513,10 @@
       <c r="A44" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="53" t="s">
         <v>99</v>
       </c>
       <c r="D44" s="1">
@@ -5533,7 +5525,7 @@
       <c r="E44" s="56">
         <v>14</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="58">
         <f ref="F44:F70" t="shared" si="1">+D44*E44</f>
         <v>70</v>
       </c>
@@ -5545,10 +5537,10 @@
       <c r="A45" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="53" t="s">
         <v>101</v>
       </c>
       <c r="D45" s="1">
@@ -5557,7 +5549,7 @@
       <c r="E45" s="56">
         <v>156</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="58">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
@@ -5569,10 +5561,10 @@
       <c r="A46" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="53" t="s">
         <v>103</v>
       </c>
       <c r="D46" s="1">
@@ -5581,7 +5573,7 @@
       <c r="E46" s="56">
         <v>56</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="58">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
@@ -5593,10 +5585,10 @@
       <c r="A47" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="53" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="1">
@@ -5605,7 +5597,7 @@
       <c r="E47" s="56">
         <v>30</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5617,10 +5609,10 @@
       <c r="A48" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="53" t="s">
         <v>108</v>
       </c>
       <c r="D48" s="1">
@@ -5629,7 +5621,7 @@
       <c r="E48" s="56">
         <v>10</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -5641,10 +5633,10 @@
       <c r="A49" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="53" t="s">
         <v>110</v>
       </c>
       <c r="D49" s="1">
@@ -5653,7 +5645,7 @@
       <c r="E49" s="56">
         <v>13</v>
       </c>
-      <c r="F49" s="57">
+      <c r="F49" s="58">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -5665,10 +5657,10 @@
       <c r="A50" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="53" t="s">
         <v>113</v>
       </c>
       <c r="D50" s="1">
@@ -5677,7 +5669,7 @@
       <c r="E50" s="56">
         <v>1</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5689,10 +5681,10 @@
       <c r="A51" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="53" t="s">
         <v>115</v>
       </c>
       <c r="D51" s="1">
@@ -5701,7 +5693,7 @@
       <c r="E51" s="56">
         <v>2</v>
       </c>
-      <c r="F51" s="57">
+      <c r="F51" s="58">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5713,10 +5705,10 @@
       <c r="A52" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="53" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="1">
@@ -5725,7 +5717,7 @@
       <c r="E52" s="56">
         <v>2</v>
       </c>
-      <c r="F52" s="57">
+      <c r="F52" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5737,10 +5729,10 @@
       <c r="A53" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="53" t="s">
         <v>120</v>
       </c>
       <c r="D53" s="1">
@@ -5749,7 +5741,7 @@
       <c r="E53" s="56">
         <v>58</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="58">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -5761,10 +5753,10 @@
       <c r="A54" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="53" t="s">
         <v>122</v>
       </c>
       <c r="D54" s="1">
@@ -5773,7 +5765,7 @@
       <c r="E54" s="56">
         <v>5</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="58">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -5785,10 +5777,10 @@
       <c r="A55" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="53" t="s">
         <v>125</v>
       </c>
       <c r="D55" s="1">
@@ -5797,7 +5789,7 @@
       <c r="E55" s="56">
         <v>4</v>
       </c>
-      <c r="F55" s="57">
+      <c r="F55" s="58">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5809,10 +5801,10 @@
       <c r="A56" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="53" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="1">
@@ -5821,7 +5813,7 @@
       <c r="E56" s="56">
         <v>14</v>
       </c>
-      <c r="F56" s="57">
+      <c r="F56" s="58">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5833,10 +5825,10 @@
       <c r="A57" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="53" t="s">
         <v>130</v>
       </c>
       <c r="D57" s="1">
@@ -5845,7 +5837,7 @@
       <c r="E57" s="56">
         <v>8</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="58">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5857,10 +5849,10 @@
       <c r="A58" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="53" t="s">
         <v>132</v>
       </c>
       <c r="D58" s="1">
@@ -5869,7 +5861,7 @@
       <c r="E58" s="56">
         <v>10</v>
       </c>
-      <c r="F58" s="57">
+      <c r="F58" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5881,10 +5873,10 @@
       <c r="A59" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="53" t="s">
         <v>134</v>
       </c>
       <c r="D59" s="1">
@@ -5893,7 +5885,7 @@
       <c r="E59" s="56">
         <v>1</v>
       </c>
-      <c r="F59" s="57">
+      <c r="F59" s="58">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5905,10 +5897,10 @@
       <c r="A60" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="53" t="s">
         <v>136</v>
       </c>
       <c r="D60" s="1">
@@ -5917,7 +5909,7 @@
       <c r="E60" s="56">
         <v>2</v>
       </c>
-      <c r="F60" s="57">
+      <c r="F60" s="58">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5929,10 +5921,10 @@
       <c r="A61" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="53" t="s">
         <v>138</v>
       </c>
       <c r="D61" s="1">
@@ -5941,7 +5933,7 @@
       <c r="E61" s="56">
         <v>22</v>
       </c>
-      <c r="F61" s="57">
+      <c r="F61" s="58">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -5953,10 +5945,10 @@
       <c r="A62" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="53" t="s">
         <v>140</v>
       </c>
       <c r="D62" s="1">
@@ -5965,7 +5957,7 @@
       <c r="E62" s="56">
         <v>17</v>
       </c>
-      <c r="F62" s="57">
+      <c r="F62" s="58">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5977,10 +5969,10 @@
       <c r="A63" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="53" t="s">
         <v>142</v>
       </c>
       <c r="D63" s="1">
@@ -5989,7 +5981,7 @@
       <c r="E63" s="56">
         <v>6</v>
       </c>
-      <c r="F63" s="57">
+      <c r="F63" s="58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -6001,10 +5993,10 @@
       <c r="A64" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="53" t="s">
         <v>145</v>
       </c>
       <c r="D64" s="1">
@@ -6013,7 +6005,7 @@
       <c r="E64" s="56">
         <v>68</v>
       </c>
-      <c r="F64" s="57">
+      <c r="F64" s="58">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -6025,10 +6017,10 @@
       <c r="A65" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="53" t="s">
         <v>147</v>
       </c>
       <c r="D65" s="1">
@@ -6037,7 +6029,7 @@
       <c r="E65" s="56">
         <v>1</v>
       </c>
-      <c r="F65" s="57">
+      <c r="F65" s="58">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -6049,10 +6041,10 @@
       <c r="A66" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="53" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="1">
@@ -6061,7 +6053,7 @@
       <c r="E66" s="56">
         <v>4</v>
       </c>
-      <c r="F66" s="57">
+      <c r="F66" s="58">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6073,10 +6065,10 @@
       <c r="A67" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D67" s="1">
@@ -6085,7 +6077,7 @@
       <c r="E67" s="56">
         <v>20</v>
       </c>
-      <c r="F67" s="57">
+      <c r="F67" s="58">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -6097,10 +6089,10 @@
       <c r="A68" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="53" t="s">
         <v>153</v>
       </c>
       <c r="D68" s="1">
@@ -6109,7 +6101,7 @@
       <c r="E68" s="56">
         <v>79</v>
       </c>
-      <c r="F68" s="57">
+      <c r="F68" s="58">
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
@@ -6121,10 +6113,10 @@
       <c r="A69" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="53" t="s">
         <v>155</v>
       </c>
       <c r="D69" s="1">
@@ -6133,7 +6125,7 @@
       <c r="E69" s="56">
         <v>113</v>
       </c>
-      <c r="F69" s="57">
+      <c r="F69" s="58">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
@@ -6145,10 +6137,10 @@
       <c r="A70" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="53" t="s">
         <v>158</v>
       </c>
       <c r="D70" s="1">
@@ -6157,7 +6149,7 @@
       <c r="E70" s="56">
         <v>10</v>
       </c>
-      <c r="F70" s="57">
+      <c r="F70" s="58">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -6169,15 +6161,15 @@
       <c r="A71" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="51">
         <v>3100</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="54" t="s">
         <v>96</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="15">
+      <c r="E71" s="57"/>
+      <c r="F71" s="59">
         <f>SUM(F44:F70)</f>
         <v>2024</v>
       </c>
